--- a/Assignments/HW1_BoxModel_Excel/Starter_code/1D ss satd.xlsx
+++ b/Assignments/HW1_BoxModel_Excel/Starter_code/1D ss satd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tyferre\frequent\Courses\21 - modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tyferre\frequent\GitHub\Git_GW_Modeling_Spring2021\Course_Materials\Assignments\HW1_BoxModel_Excel\Starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0782B73B-6BEC-43BF-AA2A-643772B0639A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D405908A-1E8E-4B04-B5BE-9F3E42271BF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="35145" windowHeight="18420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
@@ -371,15 +371,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -427,10 +418,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -509,37 +509,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.11904761904762</c:v>
+                  <c:v>91.670144332116649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.238095238095241</c:v>
+                  <c:v>83.339822745407886</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.357142857142861</c:v>
+                  <c:v>75.00886470174801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.476190476190482</c:v>
+                  <c:v>66.677153721431324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.595238095238098</c:v>
+                  <c:v>58.344631564605315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.714285714285719</c:v>
+                  <c:v>50.01129823127048</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9761904761904807</c:v>
+                  <c:v>41.677208059949812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3809523809523849</c:v>
+                  <c:v>33.342462447707106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7857142857142891</c:v>
+                  <c:v>25.007199905507111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1904761904761929</c:v>
+                  <c:v>16.671584293580334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59523809523809645</c:v>
+                  <c:v>8.3357921467901672</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -873,40 +873,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>1.1904761904761904E-3</c:v>
+                  <c:v>6.6638845343066798E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1904761904761904E-3</c:v>
+                  <c:v>6.6642572693670105E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1904761904761904E-3</c:v>
+                  <c:v>6.6647664349279013E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1904761904761904E-3</c:v>
+                  <c:v>6.6653687842533488E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1904761904761906E-3</c:v>
+                  <c:v>6.6660177254608067E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1904761904761904E-3</c:v>
+                  <c:v>6.6666666666678677E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1904761904761906E-3</c:v>
+                  <c:v>6.6672721370565342E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1904761904761915E-3</c:v>
+                  <c:v>6.6677964897941648E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1904761904761915E-3</c:v>
+                  <c:v>6.6682100337599963E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1904761904761925E-3</c:v>
+                  <c:v>6.6684924895414209E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.190476190476193E-3</c:v>
+                  <c:v>6.6686337174321343E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.190476190476193E-3</c:v>
+                  <c:v>6.6686337174321343E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,7 +1976,7 @@
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
   <dimension ref="B3:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2018,33 +2018,33 @@
   <sheetData>
     <row r="3" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:20" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="Q5" s="26" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="Q5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
       <c r="T5" s="27"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2071,46 +2071,46 @@
       <c r="N6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="20"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="17"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D7" s="7">
         <f>SUM(L9:L19)+0.5*(L8+L20)</f>
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="9" t="s">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="20"/>
+      <c r="T7" s="17"/>
     </row>
     <row r="8" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>0.01</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <f>SUM(M9:M19)+0.5*(M8+M20)</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <f>F9+inputs!$D$8</f>
@@ -2141,25 +2141,25 @@
         <f>IF($G8=3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="19">
-        <v>1</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="Q8" s="16">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="21"/>
-      <c r="T8" s="20">
+      <c r="S8" s="18"/>
+      <c r="T8" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>1E-4</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <f>SUM(N9:N19)+0.5*(N8+N20)</f>
         <v>0</v>
       </c>
@@ -2176,40 +2176,40 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I9" s="1">
-        <f ca="1">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
-        <v>85.11904761904762</v>
+        <f t="shared" ref="I9:I19" ca="1" si="0">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
+        <v>91.670144332116649</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">(I8-I9)/inputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>6.6638845343066798E-4</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L20" si="0">IF($G9=1,1,0)</f>
+        <f t="shared" ref="L9:L20" si="1">IF($G9=1,1,0)</f>
         <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:N20" si="1">IF($G9=2,1,0)</f>
+        <f t="shared" ref="M9:M20" si="2">IF($G9=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N20" si="2">IF($G9=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="19">
+        <f t="shared" ref="N9:N20" si="3">IF($G9=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
         <v>2</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="20">
+      <c r="S9" s="18"/>
+      <c r="T9" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
       <c r="F10" s="1">
         <f>F11+inputs!$D$8</f>
         <v>50</v>
@@ -2223,45 +2223,45 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I10" s="1">
-        <f ca="1">(I9*2/(1/H9+1/H10)+I11*2/(1/H10+1/H11))/(2/(1/H9+1/H10)+2/(1/H10+1/H11))</f>
-        <v>70.238095238095241</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>83.339822745407886</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">(I9-I10)/inputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>6.6642572693670105E-4</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
         <v>3</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="21"/>
-      <c r="T10" s="20">
+      <c r="S10" s="18"/>
+      <c r="T10" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <f>SUM(D7:D9)/(D7/C7+D8/C8+D9/C9)</f>
-        <v>7.1428571428571429E-4</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="F11" s="1">
         <f>F12+inputs!$D$8</f>
         <v>45</v>
@@ -2275,45 +2275,45 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I11" s="1">
-        <f ca="1">(I10*2/(1/H10+1/H11)+I12*2/(1/H11+1/H12))/(2/(1/H10+1/H11)+2/(1/H11+1/H12))</f>
-        <v>55.357142857142861</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75.00886470174801</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">(I10-I11)/inputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>6.6647664349279013E-4</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
         <v>4</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="21"/>
-      <c r="T11" s="20">
+      <c r="S11" s="18"/>
+      <c r="T11" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <f>C11*(I8-I20)/(F8-F20)</f>
-        <v>1.1904761904761904E-3</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="D12" s="10"/>
       <c r="F12" s="1">
         <f>F13+inputs!$D$8</f>
         <v>40</v>
@@ -2327,33 +2327,33 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I12" s="1">
-        <f ca="1">(I11*2/(1/H11+1/H12)+I13*2/(1/H12+1/H13))/(2/(1/H11+1/H12)+2/(1/H12+1/H13))</f>
-        <v>40.476190476190482</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>66.677153721431324</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">(I11-I12)/inputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>6.6653687842533488E-4</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
         <v>5</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="21"/>
-      <c r="T12" s="20">
+      <c r="S12" s="18"/>
+      <c r="T12" s="17">
         <v>5</v>
       </c>
     </row>
@@ -2371,33 +2371,33 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I13" s="1">
-        <f ca="1">(I12*2/(1/H12+1/H13)+I14*2/(1/H13+1/H14))/(2/(1/H12+1/H13)+2/(1/H13+1/H14))</f>
-        <v>25.595238095238098</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>58.344631564605315</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">(I12-I13)/inputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>1.1904761904761906E-3</v>
+        <v>6.6660177254608067E-4</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
         <v>6</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="21"/>
-      <c r="T13" s="20">
+      <c r="S13" s="18"/>
+      <c r="T13" s="17">
         <v>6</v>
       </c>
     </row>
@@ -2415,33 +2415,33 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I14" s="1">
-        <f ca="1">(I13*2/(1/H13+1/H14)+I15*2/(1/H14+1/H15))/(2/(1/H13+1/H14)+2/(1/H14+1/H15))</f>
-        <v>10.714285714285719</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50.01129823127048</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">(I13-I14)/inputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>1.1904761904761904E-3</v>
+        <v>6.6666666666678677E-4</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
         <v>7</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="21"/>
-      <c r="T14" s="20">
+      <c r="S14" s="18"/>
+      <c r="T14" s="17">
         <v>7</v>
       </c>
     </row>
@@ -2451,40 +2451,41 @@
         <v>25</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <f>inputs!D23</f>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <f>IF(G15=1,+inputs!$D$11,+IF(G15=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>0.01</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I15" s="1">
-        <f ca="1">(I14*2/(1/H14+1/H15)+I16*2/(1/H15+1/H16))/(2/(1/H14+1/H15)+2/(1/H15+1/H16))</f>
-        <v>2.9761904761904807</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41.677208059949812</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">(I14-I15)/inputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>1.1904761904761906E-3</v>
+        <v>6.6672721370565342E-4</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
         <v>8</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="21"/>
-      <c r="T15" s="20">
+      <c r="S15" s="18"/>
+      <c r="T15" s="17">
         <v>8</v>
       </c>
     </row>
@@ -2494,40 +2495,41 @@
         <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <f>inputs!D24</f>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <f>IF(G16=1,+inputs!$D$11,+IF(G16=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>0.01</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I16" s="1">
-        <f ca="1">(I15*2/(1/H15+1/H16)+I17*2/(1/H16+1/H17))/(2/(1/H15+1/H16)+2/(1/H16+1/H17))</f>
-        <v>2.3809523809523849</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.342462447707106</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">(I15-I16)/inputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>1.1904761904761915E-3</v>
+        <v>6.6677964897941648E-4</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
         <v>9</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="20">
+      <c r="S16" s="18"/>
+      <c r="T16" s="17">
         <v>9</v>
       </c>
     </row>
@@ -2537,40 +2539,41 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <f>inputs!D25</f>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <f>IF(G17=1,+inputs!$D$11,+IF(G17=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>0.01</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I17" s="1">
-        <f ca="1">(I16*2/(1/H16+1/H17)+I18*2/(1/H17+1/H18))/(2/(1/H16+1/H17)+2/(1/H17+1/H18))</f>
-        <v>1.7857142857142891</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25.007199905507111</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">(I16-I17)/inputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>1.1904761904761915E-3</v>
+        <v>6.6682100337599963E-4</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
         <v>10</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="21"/>
-      <c r="T17" s="20">
+      <c r="S17" s="18"/>
+      <c r="T17" s="17">
         <v>10</v>
       </c>
     </row>
@@ -2580,40 +2583,41 @@
         <v>10</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <f>inputs!D26</f>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <f>IF(G18=1,+inputs!$D$11,+IF(G18=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>0.01</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I18" s="1">
-        <f ca="1">(I17*2/(1/H17+1/H18)+I19*2/(1/H18+1/H19))/(2/(1/H17+1/H18)+2/(1/H18+1/H19))</f>
-        <v>1.1904761904761929</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16.671584293580334</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">(I17-I18)/inputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>1.1904761904761925E-3</v>
+        <v>6.6684924895414209E-4</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
         <v>11</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="21"/>
-      <c r="T18" s="20">
+      <c r="S18" s="18"/>
+      <c r="T18" s="17">
         <v>11</v>
       </c>
     </row>
@@ -2623,40 +2627,41 @@
         <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <f>inputs!D27</f>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <f>IF(G19=1,+inputs!$D$11,+IF(G19=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>0.01</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I19" s="1">
-        <f ca="1">(I18*2/(1/H18+1/H19)+I20*2/(1/H19+1/H20))/(2/(1/H18+1/H19)+2/(1/H19+1/H20))</f>
-        <v>0.59523809523809645</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3357921467901672</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">(I18-I19)/inputs!$D$8*2/(1/H18+1/H19)</f>
-        <v>1.190476190476193E-3</v>
+        <v>6.6686337174321343E-4</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
         <v>12</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="21"/>
-      <c r="T19" s="20">
+      <c r="S19" s="18"/>
+      <c r="T19" s="17">
         <v>12</v>
       </c>
     </row>
@@ -2666,11 +2671,12 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <f>inputs!D28</f>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <f>IF(G20=1,+inputs!$D$11,+IF(G20=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>0.01</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I20" s="2">
         <f>inputs!D5</f>
@@ -2678,33 +2684,33 @@
       </c>
       <c r="J20" s="1">
         <f ca="1">(I19-I20)/inputs!$D$8*2/(1/H19+1/H20)</f>
-        <v>1.190476190476193E-3</v>
+        <v>6.6686337174321343E-4</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="19">
         <v>13</v>
       </c>
-      <c r="R20" s="15" t="s">
+      <c r="R20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="23"/>
-      <c r="T20" s="24">
+      <c r="S20" s="20"/>
+      <c r="T20" s="21">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="P31" s="14"/>
+      <c r="P31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assignments/HW1_BoxModel_Excel/Starter_code/1D ss satd.xlsx
+++ b/Assignments/HW1_BoxModel_Excel/Starter_code/1D ss satd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tyferre\frequent\GitHub\Git_GW_Modeling_Spring2021\Course_Materials\Assignments\HW1_BoxModel_Excel\Starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D405908A-1E8E-4B04-B5BE-9F3E42271BF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2BBA9-CD5A-4118-88DE-6B733E263950}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="35145" windowHeight="18420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="35145" windowHeight="18420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
@@ -509,37 +509,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.670144332116649</c:v>
+                  <c:v>96.076401856799194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.339822745407886</c:v>
+                  <c:v>92.153024599941602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.00886470174801</c:v>
+                  <c:v>88.229954631998652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.677153721431324</c:v>
+                  <c:v>84.307256931447753</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.344631564605315</c:v>
+                  <c:v>80.384972682508675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.01129823127048</c:v>
+                  <c:v>76.46311832880815</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.677208059949812</c:v>
+                  <c:v>72.541686024888278</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.342462447707106</c:v>
+                  <c:v>62.73848580125982</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.007199905507111</c:v>
+                  <c:v>47.053662464220992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.671584293580334</c:v>
+                  <c:v>31.369041013906035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3357921467901672</c:v>
+                  <c:v>15.684520506953017</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -873,40 +873,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>6.6638845343066798E-4</c:v>
+                  <c:v>3.1388785145606451E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6642572693670105E-4</c:v>
+                  <c:v>3.1387018054860732E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6647664349279013E-4</c:v>
+                  <c:v>3.1384559743543602E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6653687842533488E-4</c:v>
+                  <c:v>3.1381581604407189E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6660177254608067E-4</c:v>
+                  <c:v>3.1378273991512626E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6666666666678677E-4</c:v>
+                  <c:v>3.1374834829604194E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6672721370565342E-4</c:v>
+                  <c:v>3.1371458431358974E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6677964897941648E-4</c:v>
+                  <c:v>3.1370240715611071E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6682100337599963E-4</c:v>
+                  <c:v>3.1369646674077659E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6684924895414209E-4</c:v>
+                  <c:v>3.1369242900629914E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6686337174321343E-4</c:v>
+                  <c:v>3.1369041013906034E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6686337174321343E-4</c:v>
+                  <c:v>3.1369041013906034E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,7 +1749,7 @@
   <dimension ref="B4:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1921,38 +1921,38 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -1960,11 +1960,11 @@
         <v>16</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
@@ -2006,7 +2006,7 @@
   <dimension ref="B3:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D7" s="7">
         <f>SUM(L9:L19)+0.5*(L8+L20)</f>
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D9" s="7">
         <f>SUM(N9:N19)+0.5*(N8+N20)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F9" s="1">
         <f>F10+inputs!$D$8</f>
@@ -2177,11 +2177,11 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I19" ca="1" si="0">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
-        <v>91.670144332116649</v>
+        <v>96.076401856799194</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">(I8-I9)/inputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>6.6638845343066798E-4</v>
+        <v>3.1388785145606451E-4</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L20" si="1">IF($G9=1,1,0)</f>
@@ -2224,11 +2224,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>83.339822745407886</v>
+        <v>92.153024599941602</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">(I9-I10)/inputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>6.6642572693670105E-4</v>
+        <v>3.1387018054860732E-4</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C11" s="6">
         <f>SUM(D7:D9)/(D7/C7+D8/C8+D9/C9)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1.8823529411764707E-4</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" s="1">
@@ -2276,11 +2276,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75.00886470174801</v>
+        <v>88.229954631998652</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">(I10-I11)/inputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>6.6647664349279013E-4</v>
+        <v>3.1384559743543602E-4</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C12" s="9">
         <f>C11*(I8-I20)/(F8-F20)</f>
-        <v>6.6666666666666664E-4</v>
+        <v>3.1372549019607844E-4</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="1">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.677153721431324</v>
+        <v>84.307256931447753</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">(I11-I12)/inputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>6.6653687842533488E-4</v>
+        <v>3.1381581604407189E-4</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
@@ -2372,11 +2372,11 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58.344631564605315</v>
+        <v>80.384972682508675</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">(I12-I13)/inputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>6.6660177254608067E-4</v>
+        <v>3.1378273991512626E-4</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -2416,11 +2416,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50.01129823127048</v>
+        <v>76.46311832880815</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">(I13-I14)/inputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>6.6666666666678677E-4</v>
+        <v>3.1374834829604194E-4</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
@@ -2460,11 +2460,11 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41.677208059949812</v>
+        <v>72.541686024888278</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">(I14-I15)/inputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>6.6672721370565342E-4</v>
+        <v>3.1371458431358974E-4</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
@@ -2496,23 +2496,23 @@
       </c>
       <c r="G16" s="1">
         <f>inputs!D24</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
         <f>IF(G16=1,+inputs!$D$11,+IF(G16=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>33.342462447707106</v>
+        <v>62.73848580125982</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">(I15-I16)/inputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>6.6677964897941648E-4</v>
+        <v>3.1370240715611071E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="16">
         <v>9</v>
@@ -2540,23 +2540,23 @@
       </c>
       <c r="G17" s="1">
         <f>inputs!D25</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
         <f>IF(G17=1,+inputs!$D$11,+IF(G17=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.007199905507111</v>
+        <v>47.053662464220992</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">(I16-I17)/inputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>6.6682100337599963E-4</v>
+        <v>3.1369646674077659E-4</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="16">
         <v>10</v>
@@ -2584,23 +2584,23 @@
       </c>
       <c r="G18" s="1">
         <f>inputs!D26</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
         <f>IF(G18=1,+inputs!$D$11,+IF(G18=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.671584293580334</v>
+        <v>31.369041013906035</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">(I17-I18)/inputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>6.6684924895414209E-4</v>
+        <v>3.1369242900629914E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="16">
         <v>11</v>
@@ -2628,23 +2628,23 @@
       </c>
       <c r="G19" s="1">
         <f>inputs!D27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
         <f>IF(G19=1,+inputs!$D$11,+IF(G19=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3357921467901672</v>
+        <v>15.684520506953017</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">(I18-I19)/inputs!$D$8*2/(1/H18+1/H19)</f>
-        <v>6.6686337174321343E-4</v>
+        <v>3.1369041013906034E-4</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="16">
         <v>12</v>
@@ -2672,11 +2672,11 @@
       </c>
       <c r="G20" s="1">
         <f>inputs!D28</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
         <f>IF(G20=1,+inputs!$D$11,+IF(G20=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I20" s="2">
         <f>inputs!D5</f>
@@ -2684,11 +2684,11 @@
       </c>
       <c r="J20" s="1">
         <f ca="1">(I19-I20)/inputs!$D$8*2/(1/H19+1/H20)</f>
-        <v>6.6686337174321343E-4</v>
+        <v>3.1369041013906034E-4</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="19">
         <v>13</v>
